--- a/Shading Trees/my_graphs/Value Added Change by Activities.xlsx
+++ b/Shading Trees/my_graphs/Value Added Change by Activities.xlsx
@@ -468,25 +468,25 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>-13.66602231734305</v>
+        <v>-128.3988393621503</v>
       </c>
       <c r="C2">
-        <v>-226.393084550713</v>
+        <v>-2127.071698034532</v>
       </c>
       <c r="D2">
-        <v>-117.2442897856163</v>
+        <v>-1101.566379794962</v>
       </c>
       <c r="E2">
-        <v>-2199.765871759271</v>
+        <v>-20667.8562527968</v>
       </c>
       <c r="F2">
-        <v>-579.6533299070143</v>
+        <v>-5446.121268074754</v>
       </c>
       <c r="G2">
-        <v>-405.1621679609962</v>
+        <v>-3806.69304583418</v>
       </c>
       <c r="H2">
-        <v>-185.3772275472365</v>
+        <v>-1741.70803387551</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -500,22 +500,22 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>0.7410664062226715</v>
+        <v>6.962674598336985</v>
       </c>
       <c r="C3">
-        <v>244.6994820121035</v>
+        <v>2299.069089255078</v>
       </c>
       <c r="D3">
-        <v>8.535002809547223</v>
+        <v>80.19044819704473</v>
       </c>
       <c r="E3">
-        <v>152.7924888560374</v>
+        <v>1435.558773197122</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>25.94028936197901</v>
+        <v>243.7214698946865</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -532,28 +532,28 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>-0.4196786465713558</v>
+        <v>-3.943082330288242</v>
       </c>
       <c r="C4">
-        <v>-4.84708477739332</v>
+        <v>-45.54068808430339</v>
       </c>
       <c r="D4">
-        <v>-6.503531898764777</v>
+        <v>-61.10380388420649</v>
       </c>
       <c r="E4">
-        <v>-40.81469202798326</v>
+        <v>-383.4736226550761</v>
       </c>
       <c r="F4">
-        <v>-4.861128801079758</v>
+        <v>-45.67263842796884</v>
       </c>
       <c r="G4">
-        <v>-9.430644998035859</v>
+        <v>-88.60543646614595</v>
       </c>
       <c r="H4">
-        <v>-7.803077115939232</v>
+        <v>-73.31365498126472</v>
       </c>
       <c r="I4">
-        <v>-8.067895676329499</v>
+        <v>-75.80175246904028</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -567,25 +567,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.03920043312373878</v>
+        <v>0.3683068854054252</v>
       </c>
       <c r="D5">
-        <v>0.05255407286136915</v>
+        <v>0.4937707404875366</v>
       </c>
       <c r="E5">
-        <v>0.8292255959281647</v>
+        <v>7.790972502031152</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.1228907579785528</v>
+        <v>1.154617658772333</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.08766834744375274</v>
+        <v>0.8236862050408299</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -596,13 +596,13 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>-0.9306806482618413</v>
+        <v>-8.744191417131164</v>
       </c>
       <c r="C6">
-        <v>-7.496292227471713</v>
+        <v>-70.43126369736592</v>
       </c>
       <c r="D6">
-        <v>-6.266199041507207</v>
+        <v>-58.87394777050012</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -614,10 +614,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>-35.58859117393149</v>
+        <v>-334.3718966028498</v>
       </c>
       <c r="I6">
-        <v>-3.089572382034021</v>
+        <v>-29.028015523953</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -628,13 +628,13 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>-0.00409325618347367</v>
+        <v>-0.03845810660670319</v>
       </c>
       <c r="C7">
-        <v>-0.002986501657673557</v>
+        <v>-0.02805961659463875</v>
       </c>
       <c r="D7">
-        <v>-0.01507802848537665</v>
+        <v>-0.1416653150737866</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -646,10 +646,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>-2.785734517627134</v>
+        <v>-26.17331294567538</v>
       </c>
       <c r="I7">
-        <v>-0.2940442512754089</v>
+        <v>-2.762686881973079</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -660,13 +660,13 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>-0.5271666694952728</v>
+        <v>-4.952983899909445</v>
       </c>
       <c r="C8">
-        <v>-0.383597452891081</v>
+        <v>-3.604082196689094</v>
       </c>
       <c r="D8">
-        <v>-1.933043509056006</v>
+        <v>-18.16187162846552</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -678,10 +678,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>-5.155948229050409</v>
+        <v>-48.44260846707854</v>
       </c>
       <c r="I8">
-        <v>-0.4844214627853489</v>
+        <v>-4.551372165170489</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -692,13 +692,13 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>-0.280134894199918</v>
+        <v>-2.632001795757445</v>
       </c>
       <c r="C9">
-        <v>-0.2043722105109538</v>
+        <v>-1.920175016411456</v>
       </c>
       <c r="D9">
-        <v>-1.031461067680823</v>
+        <v>-9.691071832173817</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>-6.679420748595021</v>
+        <v>-62.75636405500954</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -724,13 +724,13 @@
         <v>17</v>
       </c>
       <c r="B10">
-        <v>-2.120046769833607</v>
+        <v>-19.91885702503626</v>
       </c>
       <c r="C10">
-        <v>-1.228212280282605</v>
+        <v>-11.53964391514961</v>
       </c>
       <c r="D10">
-        <v>-0.252838984028017</v>
+        <v>-2.375543617655552</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -742,10 +742,10 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>-9.229752348059264</v>
+        <v>-86.71795359114385</v>
       </c>
       <c r="I10">
-        <v>-0.7458963629505888</v>
+        <v>-7.008054360174998</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -756,13 +756,13 @@
         <v>18</v>
       </c>
       <c r="B11">
-        <v>-14.62239012192003</v>
+        <v>-137.3843739426972</v>
       </c>
       <c r="C11">
-        <v>-35.4112760827411</v>
+        <v>-332.7059362098723</v>
       </c>
       <c r="D11">
-        <v>-40.84098724281648</v>
+        <v>-383.7206788201374</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>-135.702194346115</v>
+        <v>-1274.987252935036</v>
       </c>
       <c r="I11">
-        <v>-8.324392990296474</v>
+        <v>-78.21166785247071</v>
       </c>
       <c r="J11">
         <v>0</v>
